--- a/data/berita 2022.xlsx
+++ b/data/berita 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\bimbingan\catatanbimbingan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84F43AA-46CB-41F5-A595-950D85BE238E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E8F905-D8C1-4DBE-AE00-AC16A13A5A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="4" xr2:uid="{91BC63FB-D95F-4F2E-978D-4725E8CE5A9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{91BC63FB-D95F-4F2E-978D-4725E8CE5A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="pikiran rakyat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="tribunnews" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">anataranews!$A$1:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">anataranews!$A$1:$D$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'pikiran rakyat'!$A$1:$D$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tribunnews!$A$1:$D$57</definedName>
   </definedNames>
@@ -1594,10 +1594,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC4BD45-AC19-4A64-AA13-2AF433E70FBE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1846,7 +1847,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D16" xr:uid="{1DC4BD45-AC19-4A64-AA13-2AF433E70FBE}"/>
+  <autoFilter ref="A1:D16" xr:uid="{1DC4BD45-AC19-4A64-AA13-2AF433E70FBE}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="positif"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1" xr:uid="{5726C75A-FE5E-4923-BD70-5EC5184D2660}"/>
   </hyperlinks>
@@ -2119,13 +2126,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2062A3E0-29C2-4CBD-82EE-C7CE6AFE4402}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2155,7 +2166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2195,7 +2206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2213,7 +2224,7 @@
         <v>74.074074074074076</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2227,7 +2238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2409,7 +2420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2465,7 +2476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2479,7 +2490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2536,17 +2547,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D25" xr:uid="{2062A3E0-29C2-4CBD-82EE-C7CE6AFE4402}"/>
+  <autoFilter ref="A1:D28" xr:uid="{2062A3E0-29C2-4CBD-82EE-C7CE6AFE4402}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="positif"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB0ACF1-F49D-4C62-9331-93F3586CEBFD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,7 +2586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2582,7 +2600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2602,7 +2620,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2622,7 +2640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2640,7 +2658,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2654,7 +2672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2668,7 +2686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2682,7 +2700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2696,7 +2714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2710,7 +2728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2738,7 +2756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2752,7 +2770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2766,7 +2784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2794,7 +2812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3369,7 +3387,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D57" xr:uid="{7FB0ACF1-F49D-4C62-9331-93F3586CEBFD}"/>
+  <autoFilter ref="A1:D57" xr:uid="{7FB0ACF1-F49D-4C62-9331-93F3586CEBFD}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="positif"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>